--- a/data/trans_dic/P1435-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1435-Provincia-trans_dic.xlsx
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01972500885815303</v>
+        <v>0.0200878334431952</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.00664841555032517</v>
+        <v>0.006690505513000274</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.008707638420274378</v>
+        <v>0.009120299171651696</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.00133813041832104</v>
+        <v>0.001293473599670103</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07160458238480082</v>
+        <v>0.07328392695178024</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04531457717042107</v>
+        <v>0.04387054251706794</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04974251670575694</v>
+        <v>0.04464150706106815</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01236722221153327</v>
+        <v>0.01188505253592308</v>
       </c>
     </row>
     <row r="7">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1411949028262261</v>
+        <v>0.1394456582911629</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04159532240500519</v>
+        <v>0.04343835474274854</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001903970724286494</v>
+        <v>0.001886071624309987</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03995350868388088</v>
+        <v>0.04001143804567595</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.205572577410003</v>
+        <v>0.204481956763413</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08602845942742122</v>
+        <v>0.08500362593660878</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01856944088955837</v>
+        <v>0.01878230290775472</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08444768435838691</v>
+        <v>0.08617948251021927</v>
       </c>
     </row>
     <row r="10">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02718589688625845</v>
+        <v>0.02857518561901235</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01482255563787278</v>
+        <v>0.01459917147782918</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01079807229443241</v>
+        <v>0.01077016295574291</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01681640501359135</v>
+        <v>0.01635245853717814</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07355083535057431</v>
+        <v>0.0755659984934562</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05441703646059309</v>
+        <v>0.05147115049374779</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04120417830044185</v>
+        <v>0.04058063602502161</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05407512332812822</v>
+        <v>0.05325592059247535</v>
       </c>
     </row>
     <row r="13">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04941699454182211</v>
+        <v>0.05030773529518519</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0172344668563578</v>
+        <v>0.01978069033663091</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.004745967601665461</v>
+        <v>0.004747085549636021</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02566595507868626</v>
+        <v>0.02539637822523318</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1039167369437613</v>
+        <v>0.1057422864691972</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05740528949191229</v>
+        <v>0.05997375726262882</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02780874312418243</v>
+        <v>0.02692945977161186</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06875053947390353</v>
+        <v>0.0710737557386783</v>
       </c>
     </row>
     <row r="16">
@@ -857,7 +857,7 @@
         <v>0.01772492628297515</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.08946177962708225</v>
+        <v>0.08946177962708224</v>
       </c>
     </row>
     <row r="17">
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.009233807927291136</v>
+        <v>0.009218865009113996</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04828413907921267</v>
+        <v>0.04432145571677189</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.005031106625105948</v>
+        <v>0.004323184220620918</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06462640861604184</v>
+        <v>0.0619263892027388</v>
       </c>
     </row>
     <row r="18">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05464777997814999</v>
+        <v>0.06071467726338439</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.125432782287823</v>
+        <v>0.1207629447799334</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04285024152518592</v>
+        <v>0.0440943974945615</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.122036062802192</v>
+        <v>0.1211944430092266</v>
       </c>
     </row>
     <row r="19">
@@ -932,16 +932,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.05776606114944641</v>
+        <v>0.05729455089802056</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.043806306338932</v>
+        <v>0.04366748062354116</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02592718886653657</v>
+        <v>0.02458133765566124</v>
       </c>
     </row>
     <row r="21">
@@ -952,16 +952,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1256208415578758</v>
+        <v>0.1224040793817992</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1045604388940003</v>
+        <v>0.1056661520398125</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01702379726825213</v>
+        <v>0.01703631455281239</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.07078004316239576</v>
+        <v>0.0704275252343164</v>
       </c>
     </row>
     <row r="22">
@@ -985,7 +985,7 @@
         <v>0.04527684879942254</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1525020119403307</v>
+        <v>0.1525020119403306</v>
       </c>
     </row>
     <row r="23">
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03276360769769028</v>
+        <v>0.03315231902435128</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02419196398503523</v>
+        <v>0.02568192465173357</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03237315071505609</v>
+        <v>0.03259805846059276</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1278222190367846</v>
+        <v>0.1261614634752119</v>
       </c>
     </row>
     <row r="24">
@@ -1016,16 +1016,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06704494554887287</v>
+        <v>0.06580553411395103</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05442682319514217</v>
+        <v>0.0544692520817353</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06407949038571152</v>
+        <v>0.06326572760405884</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1796714368710383</v>
+        <v>0.1803439240086049</v>
       </c>
     </row>
     <row r="25">
@@ -1060,16 +1060,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.06319300569855735</v>
+        <v>0.06147380962396965</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.008832896133978408</v>
+        <v>0.008989303692385717</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.004761795247701981</v>
+        <v>0.004746274919497312</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01267128005648536</v>
+        <v>0.01294053434131387</v>
       </c>
     </row>
     <row r="27">
@@ -1080,16 +1080,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1034104190049664</v>
+        <v>0.09979442735128306</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02814448024979806</v>
+        <v>0.02797474613883632</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01799702909793231</v>
+        <v>0.01828810110732917</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03303591855154677</v>
+        <v>0.03208957977541863</v>
       </c>
     </row>
     <row r="28">
@@ -1124,16 +1124,16 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.06764500949734679</v>
+        <v>0.06828254962595506</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.03303629951640324</v>
+        <v>0.03201556469607927</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.01444121707289562</v>
+        <v>0.01472226793829834</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.05371776213085682</v>
+        <v>0.05362189258272029</v>
       </c>
     </row>
     <row r="30">
@@ -1144,16 +1144,16 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.08589958562016063</v>
+        <v>0.08680813227985446</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.04573050022860073</v>
+        <v>0.04559053293270065</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.0236758387175055</v>
+        <v>0.02348346981164601</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.07005433430636625</v>
+        <v>0.06985351668594032</v>
       </c>
     </row>
     <row r="31">
@@ -1306,16 +1306,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5145</v>
+        <v>5240</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1910</v>
+        <v>1922</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2514</v>
+        <v>2633</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>423</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7">
@@ -1326,16 +1326,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>18677</v>
+        <v>19115</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>13016</v>
+        <v>12602</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14361</v>
+        <v>12888</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>3909</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="8">
@@ -1390,16 +1390,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>71155</v>
+        <v>70274</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>21786</v>
+        <v>22751</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>21643</v>
+        <v>21675</v>
       </c>
     </row>
     <row r="11">
@@ -1410,16 +1410,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>103598</v>
+        <v>103048</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>45059</v>
+        <v>44522</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9713</v>
+        <v>9825</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>45746</v>
+        <v>46685</v>
       </c>
     </row>
     <row r="12">
@@ -1474,16 +1474,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9118</v>
+        <v>9584</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5055</v>
+        <v>4979</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3631</v>
+        <v>3622</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5993</v>
+        <v>5828</v>
       </c>
     </row>
     <row r="15">
@@ -1494,16 +1494,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>24670</v>
+        <v>25346</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18557</v>
+        <v>17553</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13857</v>
+        <v>13648</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>19271</v>
+        <v>18979</v>
       </c>
     </row>
     <row r="16">
@@ -1558,16 +1558,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18356</v>
+        <v>18687</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6703</v>
+        <v>7694</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>1838</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>10814</v>
+        <v>10700</v>
       </c>
     </row>
     <row r="19">
@@ -1578,16 +1578,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>38600</v>
+        <v>39279</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>22328</v>
+        <v>23327</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10770</v>
+        <v>10429</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>28967</v>
+        <v>29945</v>
       </c>
     </row>
     <row r="20">
@@ -1642,16 +1642,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1918</v>
+        <v>1914</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10603</v>
+        <v>9733</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1100</v>
+        <v>945</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>14659</v>
+        <v>14046</v>
       </c>
     </row>
     <row r="23">
@@ -1662,16 +1662,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>11349</v>
+        <v>12608</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>27544</v>
+        <v>26518</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>9367</v>
+        <v>9638</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>27681</v>
+        <v>27490</v>
       </c>
     </row>
     <row r="24">
@@ -1726,16 +1726,16 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>16067</v>
+        <v>15936</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>12182</v>
+        <v>12144</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>6821</v>
+        <v>6467</v>
       </c>
     </row>
     <row r="27">
@@ -1746,16 +1746,16 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>34941</v>
+        <v>34046</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>29078</v>
+        <v>29385</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4649</v>
+        <v>4653</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>18622</v>
+        <v>18529</v>
       </c>
     </row>
     <row r="28">
@@ -1810,16 +1810,16 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>20910</v>
+        <v>21158</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>16786</v>
+        <v>17819</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>22379</v>
+        <v>22535</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>98121</v>
+        <v>96846</v>
       </c>
     </row>
     <row r="31">
@@ -1830,16 +1830,16 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>42789</v>
+        <v>41998</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>37764</v>
+        <v>37794</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>44298</v>
+        <v>43735</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>137922</v>
+        <v>138438</v>
       </c>
     </row>
     <row r="32">
@@ -1894,16 +1894,16 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>49512</v>
+        <v>48165</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>7266</v>
+        <v>7394</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>3934</v>
+        <v>3921</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>10525</v>
+        <v>10749</v>
       </c>
     </row>
     <row r="35">
@@ -1914,16 +1914,16 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>81023</v>
+        <v>78190</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>23151</v>
+        <v>23011</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>14869</v>
+        <v>15109</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>27440</v>
+        <v>26654</v>
       </c>
     </row>
     <row r="36">
@@ -1978,16 +1978,16 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>228586</v>
+        <v>230740</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>117447</v>
+        <v>113818</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>51188</v>
+        <v>52184</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>200026</v>
+        <v>199669</v>
       </c>
     </row>
     <row r="39">
@@ -1998,16 +1998,16 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>290272</v>
+        <v>293342</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>162576</v>
+        <v>162079</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>83920</v>
+        <v>83238</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>260858</v>
+        <v>260110</v>
       </c>
     </row>
     <row r="40">
